--- a/biology/Biologie cellulaire et moléculaire/Isoleucine/Isoleucine.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Isoleucine/Isoleucine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L’isoleucine (abréviations IUPAC-IUBMB : Ile et I) est un acide α-aminé faisant partie des 20 acides aminés majeurs codés par le génome (exception faite de la Sélénocystéine) servant à la synthèse des protéines. Cet acide aminé est l'un des 9 acides aminés essentiels pour l'homme, c'est-à-dire non synthétisable de novo par les cellules mais indispensable à son bon fonctionnement, son apport est donc alimentaire.
@@ -515,9 +527,11 @@
           <t>Découverte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’isoleucine a été découverte en 1904 par Félix Ehrlich[6], dans des mélasses.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’isoleucine a été découverte en 1904 par Félix Ehrlich, dans des mélasses.
 </t>
         </is>
       </c>
@@ -548,10 +562,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Synthèse biologique
-L'isoleucine est synthétisé dans le corps humain à partir de l'hydroxyéthyl thiamine pyrophosphate[7].
-Maladies du métabolisme
-La dégradation de l'isoleucine est altérée dans les maladies métaboliques suivantes :
+          <t>Synthèse biologique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'isoleucine est synthétisé dans le corps humain à partir de l'hydroxyéthyl thiamine pyrophosphate.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Isoleucine</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Isoleucine</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Métabolisme</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Maladies du métabolisme</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La dégradation de l'isoleucine est altérée dans les maladies métaboliques suivantes :
 Acidémie méthylmalonique
 Acidémie propionique
 Acidurie combinée malonique et méthylmalonique (CMAMMA)
@@ -559,32 +613,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Isoleucine</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Isoleucine</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Structure</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -606,10 +634,40 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Isoleucine</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Isoleucine</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Biochimie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">En plus du carbone α, elle possède un deuxième carbone asymétrique en position 3 (carbone β), et seule la forme 2S-3S est incorporée dans les protéines.
 </t>
